--- a/Data/Excels/Synthetic/Resumes/Experiment 3.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Experiment 3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.67</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>74.78</v>
+        <v>74.81</v>
       </c>
       <c r="G2" t="n">
         <v>68.19</v>
       </c>
       <c r="H2" t="n">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="I2" t="n">
-        <v>73.84</v>
+        <v>74.13</v>
       </c>
       <c r="J2" t="n">
         <v>75.18000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.78</v>
+        <v>2.39</v>
       </c>
       <c r="L2" t="n">
-        <v>78.34</v>
+        <v>75.13</v>
       </c>
       <c r="M2" t="n">
         <v>77.11</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>9.130000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="F3" t="n">
-        <v>62.97</v>
+        <v>62.47</v>
       </c>
       <c r="G3" t="n">
         <v>69.2</v>
       </c>
       <c r="H3" t="n">
-        <v>11.03</v>
+        <v>11.35</v>
       </c>
       <c r="I3" t="n">
-        <v>65.04000000000001</v>
+        <v>64.81</v>
       </c>
       <c r="J3" t="n">
         <v>73.2</v>
       </c>
       <c r="K3" t="n">
-        <v>24.32</v>
+        <v>23.01</v>
       </c>
       <c r="L3" t="n">
-        <v>61.77</v>
+        <v>62.85</v>
       </c>
       <c r="M3" t="n">
         <v>81.59999999999999</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.55</v>
+        <v>5.96</v>
       </c>
       <c r="F4" t="n">
-        <v>62.92</v>
+        <v>56.6</v>
       </c>
       <c r="G4" t="n">
         <v>60.25</v>
       </c>
       <c r="H4" t="n">
-        <v>7.25</v>
+        <v>20.21</v>
       </c>
       <c r="I4" t="n">
-        <v>63.28</v>
+        <v>54.43</v>
       </c>
       <c r="J4" t="n">
         <v>68.29000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29</v>
+        <v>23.08</v>
       </c>
       <c r="L4" t="n">
-        <v>62.58</v>
+        <v>54.88</v>
       </c>
       <c r="M4" t="n">
         <v>71.45999999999999</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-27.22</v>
+        <v>50.42</v>
       </c>
       <c r="F5" t="n">
-        <v>75.16</v>
+        <v>29.29</v>
       </c>
       <c r="G5" t="n">
         <v>59.07</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.66</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>75.87</v>
+        <v>63.05</v>
       </c>
       <c r="J5" t="n">
         <v>69.8</v>
       </c>
       <c r="K5" t="n">
-        <v>-81.66</v>
+        <v>61.78</v>
       </c>
       <c r="L5" t="n">
-        <v>126.71</v>
+        <v>26.66</v>
       </c>
       <c r="M5" t="n">
         <v>69.73999999999999</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>17.71</v>
+        <v>28.98</v>
       </c>
       <c r="F6" t="n">
-        <v>40.78</v>
+        <v>35.2</v>
       </c>
       <c r="G6" t="n">
         <v>49.6</v>
       </c>
       <c r="H6" t="n">
-        <v>29.04</v>
+        <v>20.3</v>
       </c>
       <c r="I6" t="n">
-        <v>42.72</v>
+        <v>47.98</v>
       </c>
       <c r="J6" t="n">
         <v>60.2</v>
       </c>
       <c r="K6" t="n">
-        <v>39.11</v>
+        <v>39.05</v>
       </c>
       <c r="L6" t="n">
-        <v>37.05</v>
+        <v>37.08</v>
       </c>
       <c r="M6" t="n">
         <v>60.8</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0.36</v>
+        <v>2.25</v>
       </c>
       <c r="F7" t="n">
-        <v>55.38</v>
+        <v>54.33</v>
       </c>
       <c r="G7" t="n">
         <v>55.6</v>
       </c>
       <c r="H7" t="n">
-        <v>9.1</v>
+        <v>19.48</v>
       </c>
       <c r="I7" t="n">
-        <v>59.66</v>
+        <v>52.84</v>
       </c>
       <c r="J7" t="n">
         <v>65.62</v>
       </c>
       <c r="K7" t="n">
-        <v>6.36</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>61.72</v>
+        <v>19.54</v>
       </c>
       <c r="M7" t="n">
         <v>65.90000000000001</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>10.96</v>
+        <v>34.55</v>
       </c>
       <c r="F8" t="n">
-        <v>52.41</v>
+        <v>38.53</v>
       </c>
       <c r="G8" t="n">
         <v>58.71</v>
       </c>
       <c r="H8" t="n">
-        <v>18.33</v>
+        <v>11.3</v>
       </c>
       <c r="I8" t="n">
-        <v>54.3</v>
+        <v>58.98</v>
       </c>
       <c r="J8" t="n">
         <v>66.45</v>
       </c>
       <c r="K8" t="n">
-        <v>46.9</v>
+        <v>51.16</v>
       </c>
       <c r="L8" t="n">
-        <v>38.59</v>
+        <v>35.49</v>
       </c>
       <c r="M8" t="n">
         <v>72.58</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>4.83</v>
+        <v>-6.81</v>
       </c>
       <c r="F9" t="n">
-        <v>55.34</v>
+        <v>62.11</v>
       </c>
       <c r="G9" t="n">
         <v>58.03</v>
       </c>
       <c r="H9" t="n">
-        <v>12.38</v>
+        <v>18.27</v>
       </c>
       <c r="I9" t="n">
-        <v>58.71</v>
+        <v>54.77</v>
       </c>
       <c r="J9" t="n">
         <v>66.92</v>
       </c>
       <c r="K9" t="n">
-        <v>15.25</v>
+        <v>16.19</v>
       </c>
       <c r="L9" t="n">
-        <v>58.29</v>
+        <v>57.64</v>
       </c>
       <c r="M9" t="n">
         <v>68.81</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>39.19</v>
+        <v>54.87</v>
       </c>
       <c r="F10" t="n">
-        <v>27.43</v>
+        <v>20.36</v>
       </c>
       <c r="G10" t="n">
         <v>45.14</v>
       </c>
       <c r="H10" t="n">
-        <v>54.25</v>
+        <v>54.06</v>
       </c>
       <c r="I10" t="n">
-        <v>26.89</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
         <v>58.78</v>
       </c>
       <c r="K10" t="n">
-        <v>49.65</v>
+        <v>68.8</v>
       </c>
       <c r="L10" t="n">
-        <v>30.25</v>
+        <v>18.74</v>
       </c>
       <c r="M10" t="n">
         <v>60.08</v>
@@ -903,31 +903,461 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.11</v>
+        <v>57.61</v>
       </c>
       <c r="F11" t="n">
-        <v>65.38</v>
+        <v>22.7</v>
       </c>
       <c r="G11" t="n">
         <v>53.54</v>
       </c>
       <c r="H11" t="n">
-        <v>3.53</v>
+        <v>35.9</v>
       </c>
       <c r="I11" t="n">
-        <v>63.3</v>
+        <v>42.06</v>
       </c>
       <c r="J11" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>-72.28</v>
+        <v>20.06</v>
       </c>
       <c r="L11" t="n">
-        <v>114.46</v>
+        <v>53.11</v>
       </c>
       <c r="M11" t="n">
         <v>66.41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F12" t="n">
+        <v>409.03</v>
+      </c>
+      <c r="G12" t="n">
+        <v>415.83</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I12" t="n">
+        <v>409.81</v>
+      </c>
+      <c r="J12" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>70</v>
+      </c>
+      <c r="L12" t="n">
+        <v>131.19</v>
+      </c>
+      <c r="M12" t="n">
+        <v>437.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F13" t="n">
+        <v>586.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>604.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>592.4400000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="L13" t="n">
+        <v>220.17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>637.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>372.72</v>
+      </c>
+      <c r="G14" t="n">
+        <v>378.73</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>374.12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>374.56</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>140.74</v>
+      </c>
+      <c r="M14" t="n">
+        <v>393.42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>216.77</v>
+      </c>
+      <c r="G15" t="n">
+        <v>215.22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>217.79</v>
+      </c>
+      <c r="J15" t="n">
+        <v>217.99</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L15" t="n">
+        <v>215.86</v>
+      </c>
+      <c r="M15" t="n">
+        <v>222.49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="F16" t="n">
+        <v>145.77</v>
+      </c>
+      <c r="G16" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="n">
+        <v>196.17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>198</v>
+      </c>
+      <c r="K16" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="L16" t="n">
+        <v>145.37</v>
+      </c>
+      <c r="M16" t="n">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Planar</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="F17" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>196.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>199.54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>200</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100.55</v>
+      </c>
+      <c r="M17" t="n">
+        <v>203.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>55.89</v>
+      </c>
+      <c r="F18" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>138.06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I18" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>144.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="L18" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="M18" t="n">
+        <v>145.94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>139.57</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I19" t="n">
+        <v>141.24</v>
+      </c>
+      <c r="J19" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="L19" t="n">
+        <v>137.82</v>
+      </c>
+      <c r="M19" t="n">
+        <v>147.46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="G20" t="n">
+        <v>122.29</v>
+      </c>
+      <c r="H20" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="I20" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="J20" t="n">
+        <v>130.67</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L20" t="n">
+        <v>125.19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>131.3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>76.42</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gradual</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>56.67</v>
+      </c>
+      <c r="F21" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I21" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>138.29</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>134.64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>138.72</v>
       </c>
     </row>
   </sheetData>
